--- a/StructureDefinition-ext-R5-MPD.pUI.xlsx
+++ b/StructureDefinition-ext-R5-MPD.pUI.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `MedicinalProductDefinition.pediatricUseIndicator` 0..1 `CodeableConcept`
 *  R4B: `MedicinalProductDefinition.pediatricUseIndicator` 0..1 `CodeableConcept`
 Following are the generation technical comments:
-Element `MedicinalProductDefinition.pediatricUseIndicator` is mapped to FHIR R4 structure `MedicinalProduct`, but has no target element specified.</t>
+Element `MedicinalProductDefinition.pediatricUseIndicator` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:MedicinalProduct</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-ext-R5-MPD.pUI.xlsx
+++ b/StructureDefinition-ext-R5-MPD.pUI.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `MedicinalProductDefinition.pediatricUseIndicator` 0..1 `CodeableConcept`
 *  R4B: `MedicinalProductDefinition.pediatricUseIndicator` 0..1 `CodeableConcept`
 Following are the generation technical comments:
-Element `MedicinalProductDefinition.pediatricUseIndicator` is will have a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+Element `MedicinalProductDefinition.pediatricUseIndicator` has a context of MedicinalProduct based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/StructureDefinition-ext-R5-MPD.pUI.xlsx
+++ b/StructureDefinition-ext-R5-MPD.pUI.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -369,7 +369,7 @@
     <t>Suitability for age groups, in particular children.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medicinal-product-pediatric-use-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-pediatric-use-for-R4</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -724,7 +724,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="38.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="83.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.1171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-MPD.pUI.xlsx
+++ b/StructureDefinition-ext-R5-MPD.pUI.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -369,7 +369,7 @@
     <t>Suitability for age groups, in particular children.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-pediatric-use-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-pediatric-use-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -724,7 +724,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="38.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.1171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="79.53125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
